--- a/storage/Peekaboo Cabled Sweater Variables.xlsx
+++ b/storage/Peekaboo Cabled Sweater Variables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\laragon\www\knit\storage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E0B364C-B438-4DB9-94AE-A9EF6983D88A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{692B7883-6980-4B3C-9E37-281232732A3D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -816,7 +816,7 @@
       <name val="Inconsolata"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -851,18 +851,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFEAD1DC"/>
         <bgColor rgb="FFEAD1DC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -1071,10 +1059,10 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3346,8 +3334,8 @@
   </sheetPr>
   <dimension ref="A1:Z1088"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="B77" sqref="B77"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1"/>

--- a/storage/Peekaboo Cabled Sweater Variables.xlsx
+++ b/storage/Peekaboo Cabled Sweater Variables.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\laragon\www\knit\storage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{692B7883-6980-4B3C-9E37-281232732A3D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10392EC5-11C9-4C00-9780-56BA2937905B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="formresponses2" sheetId="1" r:id="rId1"/>
     <sheet name="Offsets" sheetId="2" r:id="rId2"/>
     <sheet name="KnitVariables" sheetId="3" r:id="rId3"/>
     <sheet name="ArmholeShaping" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="BUST">KnitVariables!$C$14</definedName>
@@ -119,7 +120,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="227">
   <si>
     <t>Timestamp</t>
   </si>
@@ -725,6 +726,84 @@
   <si>
     <t>NO_OF_STITCHES_FOR_FIRST_DECREASE_AT_ARMHOLE</t>
   </si>
+  <si>
+    <t>hips</t>
+  </si>
+  <si>
+    <t>shoulder_to_shoulder</t>
+  </si>
+  <si>
+    <t>first_name</t>
+  </si>
+  <si>
+    <t>last_name</t>
+  </si>
+  <si>
+    <t>email_address</t>
+  </si>
+  <si>
+    <t>measurement_preference</t>
+  </si>
+  <si>
+    <t>waist</t>
+  </si>
+  <si>
+    <t>waist_front</t>
+  </si>
+  <si>
+    <t>bust</t>
+  </si>
+  <si>
+    <t>bust_front</t>
+  </si>
+  <si>
+    <t>bust_back</t>
+  </si>
+  <si>
+    <t>waist_to_underarm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>armhole_depth</t>
+  </si>
+  <si>
+    <t>wrist_circumference</t>
+  </si>
+  <si>
+    <t>forearm_circumference</t>
+  </si>
+  <si>
+    <t>upperarm_circumference</t>
+  </si>
+  <si>
+    <t>shoulder_circumference</t>
+  </si>
+  <si>
+    <t>wrist_to_underarm</t>
+  </si>
+  <si>
+    <t>wrist_to_elbow</t>
+  </si>
+  <si>
+    <t>elbow_to_underarm</t>
+  </si>
+  <si>
+    <t>wrist_to_top_of_shoulder</t>
+  </si>
+  <si>
+    <t>depth_of_neck</t>
+  </si>
+  <si>
+    <t>neck_width</t>
+  </si>
+  <si>
+    <t>neck_circumference</t>
+  </si>
+  <si>
+    <t>neck_to_shoulder</t>
+  </si>
 </sst>
 </file>
 
@@ -733,7 +812,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="19">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -815,6 +894,18 @@
       <color rgb="FF000000"/>
       <name val="Inconsolata"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -873,7 +964,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -1063,6 +1154,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3334,8 +3427,8 @@
   </sheetPr>
   <dimension ref="A1:Z1088"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1"/>
@@ -41535,4 +41628,240 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FCA7099-1279-447F-A573-F2D3FDDE803C}">
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5"/>
+  <cols>
+    <col min="1" max="1" width="35.08984375" customWidth="1"/>
+    <col min="2" max="2" width="43.90625" customWidth="1"/>
+    <col min="3" max="3" width="42.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="109" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="109" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="109" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="109" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="109" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="109" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="109" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="109" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="110" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="110" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="113" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="113" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="113" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="109" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="109" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="109" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" t="s">
+        <v>209</v>
+      </c>
+      <c r="C13" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="111" t="s">
+        <v>199</v>
+      </c>
+      <c r="B14" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="109" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="109" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="B17" t="s">
+        <v>217</v>
+      </c>
+      <c r="C17" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="111" t="s">
+        <v>197</v>
+      </c>
+      <c r="B18" t="s">
+        <v>219</v>
+      </c>
+      <c r="C18" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="111" t="s">
+        <v>196</v>
+      </c>
+      <c r="B19" t="s">
+        <v>220</v>
+      </c>
+      <c r="C19" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="111" t="s">
+        <v>195</v>
+      </c>
+      <c r="B20" t="s">
+        <v>221</v>
+      </c>
+      <c r="C20" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="112" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="114" t="s">
+        <v>77</v>
+      </c>
+      <c r="B22" t="s">
+        <v>208</v>
+      </c>
+      <c r="C22" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="114" t="s">
+        <v>83</v>
+      </c>
+      <c r="B23" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="75" t="s">
+        <v>93</v>
+      </c>
+      <c r="B24" s="108" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="75" t="s">
+        <v>98</v>
+      </c>
+      <c r="B25" s="75" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/storage/Peekaboo Cabled Sweater Variables.xlsx
+++ b/storage/Peekaboo Cabled Sweater Variables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\laragon\www\knit\storage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10392EC5-11C9-4C00-9780-56BA2937905B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1EE0A4A-3206-41D1-86DD-252E06494593}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="formresponses2" sheetId="1" r:id="rId1"/>
@@ -120,7 +120,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="232">
   <si>
     <t>Timestamp</t>
   </si>
@@ -425,9 +425,6 @@
     <t>Cast on</t>
   </si>
   <si>
-    <t>#_OF_STITCHES_TO_CAST_ON</t>
-  </si>
-  <si>
     <t>IF(C13&gt;=C9, C31,C32)</t>
   </si>
   <si>
@@ -518,28 +515,10 @@
     <t>Shape Body</t>
   </si>
   <si>
-    <t>#_OF_INCHES_FOR_LOWER_BORDER</t>
-  </si>
-  <si>
     <t>This is a unique element would be defined as a constant by the designer (in this case, included in the calculation for C51)</t>
   </si>
   <si>
-    <t>#_OF_INCHES_TO_DECREASE_WAIST</t>
-  </si>
-  <si>
     <t>Rounded to 2 places for easy measurement by the knitter</t>
-  </si>
-  <si>
-    <t>#_OF_STITCHES_TO_DECREASE_WAIST</t>
-  </si>
-  <si>
-    <t>#_OF_INCHES_AVAILABLE_TO_DECREASE</t>
-  </si>
-  <si>
-    <t>#_OF_ROWS_AVAILABLE_FOR_DECREASING</t>
-  </si>
-  <si>
-    <t>#_OF_TIMES_TO_DECREASE_WAIST</t>
   </si>
   <si>
     <t>Divided by 4 so that the knitter decreases in 4 places on the decrease row: at both side seams, both front and back (2+2)</t>
@@ -548,22 +527,7 @@
     <t>DECREASE_EVERY_N_ROWS_WAIST</t>
   </si>
   <si>
-    <t>#_OF_INCHES_TO_INCREASE_BUST</t>
-  </si>
-  <si>
-    <t>#_OF_STITCHES_TO_INCREASE_BUST</t>
-  </si>
-  <si>
-    <t>#_OF_ROWS_AVAILABLE_FOR_INCREASING</t>
-  </si>
-  <si>
-    <t>#_OF_TIMES_TO_INCREASE_BUST</t>
-  </si>
-  <si>
     <t>Divided by 2 so that the knitter decreases in 2 places on the decrease row: at both side seams, on the front only</t>
-  </si>
-  <si>
-    <t>TEST_VARIABLE_#_OF_TIMES_TO_INCREASE_BUST</t>
   </si>
   <si>
     <t>Used in line 66</t>
@@ -578,18 +542,6 @@
     <t>Back</t>
   </si>
   <si>
-    <t>#_OF_INCHES_TO_INCREASE_BACK</t>
-  </si>
-  <si>
-    <t>#_OF_STITCHES_TO_INCREASE_BACK</t>
-  </si>
-  <si>
-    <t>#_OF_ROWS_AVAILABLE_FOR_INCREASING_BACK</t>
-  </si>
-  <si>
-    <t>#_OF_TIMES_TO_INCREASE_BACK</t>
-  </si>
-  <si>
     <t>INCREASE_EVERY_N_ROWS_BACK</t>
   </si>
   <si>
@@ -599,13 +551,7 @@
     <t>2ND_LINE_TEXT_FOR_BUST_INCREASES</t>
   </si>
   <si>
-    <t>#_OF_TIMES_TO_INCREASE_BACK_FOR_TEXT</t>
-  </si>
-  <si>
     <t>Neckline shaping</t>
-  </si>
-  <si>
-    <t>#_OF_STITCHES_TO_DECREASE_EACH_SIDE_NECK</t>
   </si>
   <si>
     <t>Design element not used in this pattern</t>
@@ -614,16 +560,7 @@
     <t>Armhole Shaping</t>
   </si>
   <si>
-    <t>#_OF_DECREASES_AT_SLEEVE_CAP</t>
-  </si>
-  <si>
     <t>DEPTH_OF_ARMHOLE_BEFORE_BINDOFF</t>
-  </si>
-  <si>
-    <t>#_OF_STITCHES_AT_SHOULDER</t>
-  </si>
-  <si>
-    <t>#_OF_STITCHES_AT_SHOULDER_PLUS_8</t>
   </si>
   <si>
     <t>TEXT_FOR_CAP_SHAPING</t>
@@ -655,55 +592,13 @@
     <t/>
   </si>
   <si>
-    <t>#_OF_INCHES_FOR_SLEEVE_BORDER</t>
-  </si>
-  <si>
     <t>This is a unique element would be defined as a constant by the designer (in this case, included in the calculation for C101)</t>
-  </si>
-  <si>
-    <t>#_OF_STITCHES_TO_CAST_ON_FOR_SLEEVE</t>
-  </si>
-  <si>
-    <t>#_OF_INCHES_TO_INCREASE_AT_FOREARM</t>
-  </si>
-  <si>
-    <t>#_OF_STITCHES_TO_INCREASE_AT_FOREARM</t>
-  </si>
-  <si>
-    <t>#_OF_ROWS_TO_INCREASE_AT_FOREARM</t>
-  </si>
-  <si>
-    <t>#_OF_TIMES_TO_INCREASE_AT_FOREARM</t>
-  </si>
-  <si>
-    <t>#_OF_ROWS_BETWEEN_INCREASES_AT FOREARM</t>
   </si>
   <si>
     <t>TEXT_FOR_FOREARM_INCREASES</t>
   </si>
   <si>
-    <t>#_OF_ROWS_BETWEEN_CABLES</t>
-  </si>
-  <si>
-    <t>#_OF_INCHES_TO_INCREASE_AT_UPPER_ARM</t>
-  </si>
-  <si>
-    <t>#_OF_ROWS_TO_INCREASE_AT_UPPER_ARM</t>
-  </si>
-  <si>
-    <t>#_OF_STITCHES_TO_INCREASE_AT_UPPER_ARM</t>
-  </si>
-  <si>
-    <t>#_OF_TIMES_TO_INCREASE_AT_UPPER_ARM</t>
-  </si>
-  <si>
-    <t>#_OF_ROWS_BETWEEN_INCREASES_AT_UPPER_ARM</t>
-  </si>
-  <si>
     <t>TEXT_FOR_UPPER_ARM_INCREASES</t>
-  </si>
-  <si>
-    <t>#_OF_SLEEVE_STITCHES_AT_UPPER_ARM</t>
   </si>
   <si>
     <t>Bind off remaining 1 stitches.</t>
@@ -803,6 +698,126 @@
   </si>
   <si>
     <t>neck_to_shoulder</t>
+  </si>
+  <si>
+    <t>NO_OF_STITCHES_TO_CAST_ON</t>
+  </si>
+  <si>
+    <t>NO_OF_INCHES_FOR_LOWER_BORDER</t>
+  </si>
+  <si>
+    <t>NO_OF_INCHES_TO_DECREASE_WAIST</t>
+  </si>
+  <si>
+    <t>NO_OF_STITCHES_TO_DECREASE_WAIST</t>
+  </si>
+  <si>
+    <t>NO_OF_INCHES_AVAILABLE_TO_DECREASE</t>
+  </si>
+  <si>
+    <t>NO_OF_ROWS_AVAILABLE_FOR_DECREASING</t>
+  </si>
+  <si>
+    <t>NO_OF_TIMES_TO_DECREASE_WAIST</t>
+  </si>
+  <si>
+    <t>NO_OF_INCHES_TO_INCREASE_BUST</t>
+  </si>
+  <si>
+    <t>NO_OF_STITCHES_TO_INCREASE_BUST</t>
+  </si>
+  <si>
+    <t>NO_OF_ROWS_AVAILABLE_FOR_INCREASING</t>
+  </si>
+  <si>
+    <t>NO_OF_TIMES_TO_INCREASE_BUST</t>
+  </si>
+  <si>
+    <t>TEST_VARIABLE_NO_OF_TIMES_TO_INCREASE_BUST</t>
+  </si>
+  <si>
+    <t>NO_OF_INCHES_TO_INCREASE_BACK</t>
+  </si>
+  <si>
+    <t>NO_OF_STITCHES_TO_INCREASE_BACK</t>
+  </si>
+  <si>
+    <t>NO_OF_ROWS_AVAILABLE_FOR_INCREASING_BACK</t>
+  </si>
+  <si>
+    <t>NO_OF_TIMES_TO_INCREASE_BACK</t>
+  </si>
+  <si>
+    <t>NO_OF_TIMES_TO_INCREASE_BACK_FOR_TEXT</t>
+  </si>
+  <si>
+    <t>NO_OF_STITCHES_TO_DECREASE_EACH_SIDE_NECK</t>
+  </si>
+  <si>
+    <t>NO_OF_STITCHES_FOR_SECOND_DECREASE_AT_ARMHOLE</t>
+  </si>
+  <si>
+    <t>NO_OF_STITCHES_FOR_THIRD_DECREASE_AT_ARMHOLE</t>
+  </si>
+  <si>
+    <t>NO_OF_STITCHES_FOR_4TH_DECREASE_AT_ARMHOLE</t>
+  </si>
+  <si>
+    <t>NO_OF_TIMES_TO_DECREASE_1_STITCH_AT_EACH_END</t>
+  </si>
+  <si>
+    <t>NO_OF_ROWS_TO_KNIT_STRAIGHT</t>
+  </si>
+  <si>
+    <t>NO_OF_DECREASES_AT_SLEEVE_CAP</t>
+  </si>
+  <si>
+    <t>NO_OF_STITCHES_AT_SHOULDER</t>
+  </si>
+  <si>
+    <t>NO_OF_STITCHES_AT_SHOULDER_PLUS_8</t>
+  </si>
+  <si>
+    <t>NO_OF_INCHES_FOR_SLEEVE_BORDER</t>
+  </si>
+  <si>
+    <t>NO_OF_STITCHES_TO_CAST_ON_FOR_SLEEVE</t>
+  </si>
+  <si>
+    <t>NO_OF_INCHES_TO_INCREASE_AT_FOREARM</t>
+  </si>
+  <si>
+    <t>NO_OF_STITCHES_TO_INCREASE_AT_FOREARM</t>
+  </si>
+  <si>
+    <t>NO_OF_ROWS_TO_INCREASE_AT_FOREARM</t>
+  </si>
+  <si>
+    <t>NO_OF_TIMES_TO_INCREASE_AT_FOREARM</t>
+  </si>
+  <si>
+    <t>NO_OF_ROWS_BETWEEN_INCREASES_AT FOREARM</t>
+  </si>
+  <si>
+    <t>NO_OF_ROWS_BETWEEN_CABLES</t>
+  </si>
+  <si>
+    <t>NO_OF_INCHES_TO_INCREASE_AT_UPPER_ARM</t>
+  </si>
+  <si>
+    <t>NO_OF_ROWS_TO_INCREASE_AT_UPPER_ARM</t>
+  </si>
+  <si>
+    <t>NO_OF_STITCHES_TO_INCREASE_AT_UPPER_ARM</t>
+  </si>
+  <si>
+    <t>NO_OF_TIMES_TO_INCREASE_AT_UPPER_ARM</t>
+  </si>
+  <si>
+    <t>NO_OF_ROWS_BETWEEN_INCREASES_AT_UPPER_ARM</t>
+  </si>
+  <si>
+    <t>NO_OF_SLEEVE_STITCHES_AT_UPPER_ARM</t>
   </si>
 </sst>
 </file>
@@ -3386,7 +3401,7 @@
         <v>3</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
@@ -3401,7 +3416,7 @@
         <v>125</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
@@ -3427,8 +3442,8 @@
   </sheetPr>
   <dimension ref="A1:Z1088"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B26"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1"/>
@@ -3967,7 +3982,7 @@
     <row r="15" spans="1:26" ht="15.75" customHeight="1">
       <c r="A15" s="10"/>
       <c r="B15" s="111" t="s">
-        <v>199</v>
+        <v>164</v>
       </c>
       <c r="C15" s="16">
         <v>4</v>
@@ -4081,7 +4096,7 @@
     <row r="18" spans="1:26" ht="15.75" customHeight="1">
       <c r="A18" s="10"/>
       <c r="B18" s="111" t="s">
-        <v>198</v>
+        <v>163</v>
       </c>
       <c r="C18" s="16">
         <v>11</v>
@@ -4119,7 +4134,7 @@
     <row r="19" spans="1:26" ht="15.75" customHeight="1">
       <c r="A19" s="10"/>
       <c r="B19" s="111" t="s">
-        <v>197</v>
+        <v>162</v>
       </c>
       <c r="C19" s="16">
         <v>19</v>
@@ -4157,7 +4172,7 @@
     <row r="20" spans="1:26" ht="12.5">
       <c r="A20" s="10"/>
       <c r="B20" s="111" t="s">
-        <v>196</v>
+        <v>161</v>
       </c>
       <c r="C20" s="16">
         <v>9</v>
@@ -4195,7 +4210,7 @@
     <row r="21" spans="1:26" ht="12.5">
       <c r="A21" s="10"/>
       <c r="B21" s="111" t="s">
-        <v>195</v>
+        <v>160</v>
       </c>
       <c r="C21" s="16">
         <f>(C19-C20)</f>
@@ -4507,7 +4522,7 @@
     <row r="30" spans="1:26" ht="14">
       <c r="A30" s="25"/>
       <c r="B30" s="37" t="s">
-        <v>101</v>
+        <v>192</v>
       </c>
       <c r="C30" s="38">
         <f>IF(C13&gt;=C9, C31,C32)</f>
@@ -4516,7 +4531,7 @@
       <c r="D30" s="39"/>
       <c r="E30" s="9"/>
       <c r="F30" s="40" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G30" s="27"/>
       <c r="H30" s="9"/>
@@ -4542,7 +4557,7 @@
     <row r="31" spans="1:26" ht="14">
       <c r="A31" s="25"/>
       <c r="B31" s="41" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C31" s="42" t="b">
         <f>IF(C13&gt;=C9, MROUND((C13+C26)*C6,C33))</f>
@@ -4551,7 +4566,7 @@
       <c r="D31" s="9"/>
       <c r="E31" s="9"/>
       <c r="F31" s="43" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G31" s="27"/>
       <c r="H31" s="9"/>
@@ -4577,7 +4592,7 @@
     <row r="32" spans="1:26" ht="14">
       <c r="A32" s="10"/>
       <c r="B32" s="41" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C32" s="44">
         <f>IF(C9&gt;=C13, MROUND((C9+C26)*C6,C33))</f>
@@ -4586,7 +4601,7 @@
       <c r="D32" s="9"/>
       <c r="E32" s="9"/>
       <c r="F32" s="45" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G32" s="8"/>
       <c r="H32" s="9"/>
@@ -4612,7 +4627,7 @@
     <row r="33" spans="1:26" ht="14">
       <c r="A33" s="10"/>
       <c r="B33" s="41" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C33" s="47">
         <v>2</v>
@@ -4648,7 +4663,7 @@
       <c r="D34" s="36"/>
       <c r="E34" s="8"/>
       <c r="F34" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G34" s="8"/>
       <c r="H34" s="9"/>
@@ -4762,7 +4777,7 @@
       <c r="D38" s="36"/>
       <c r="E38" s="8"/>
       <c r="F38" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G38" s="8"/>
       <c r="H38" s="9"/>
@@ -4871,7 +4886,7 @@
     </row>
     <row r="42" spans="1:26" ht="12.5">
       <c r="A42" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B42" s="8"/>
       <c r="C42" s="4"/>
@@ -4902,7 +4917,7 @@
     <row r="43" spans="1:26" ht="12.5">
       <c r="A43" s="25"/>
       <c r="B43" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C43" s="65">
         <f>ROUND(C30/2,0)</f>
@@ -4911,7 +4926,7 @@
       <c r="D43" s="66"/>
       <c r="E43" s="27"/>
       <c r="F43" s="66" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G43" s="27"/>
       <c r="H43" s="9"/>
@@ -4937,7 +4952,7 @@
     <row r="44" spans="1:26" ht="12.5">
       <c r="A44" s="39"/>
       <c r="B44" s="37" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C44" s="69">
         <f>((C43-20)/2)</f>
@@ -4946,7 +4961,7 @@
       <c r="D44" s="39"/>
       <c r="E44" s="39"/>
       <c r="F44" s="70" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G44" s="39"/>
       <c r="H44" s="39"/>
@@ -4972,7 +4987,7 @@
     <row r="45" spans="1:26" ht="12.5">
       <c r="A45" s="39"/>
       <c r="B45" s="37" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C45" s="69">
         <f>(C44+20)</f>
@@ -5060,7 +5075,7 @@
     </row>
     <row r="48" spans="1:26" ht="12.5">
       <c r="A48" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B48" s="10"/>
       <c r="C48" s="8"/>
@@ -5091,7 +5106,7 @@
     <row r="49" spans="1:26" ht="12.5">
       <c r="A49" s="75"/>
       <c r="B49" s="76" t="s">
-        <v>132</v>
+        <v>193</v>
       </c>
       <c r="C49" s="77">
         <v>1.5</v>
@@ -5099,7 +5114,7 @@
       <c r="D49" s="25"/>
       <c r="E49" s="25"/>
       <c r="F49" s="78" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G49" s="25"/>
       <c r="H49" s="39"/>
@@ -5125,7 +5140,7 @@
     <row r="50" spans="1:26" ht="12.5">
       <c r="A50" s="75"/>
       <c r="B50" s="75" t="s">
-        <v>134</v>
+        <v>194</v>
       </c>
       <c r="C50" s="79">
         <f>ROUNDDOWN(C9-C13,2)</f>
@@ -5134,7 +5149,7 @@
       <c r="D50" s="25"/>
       <c r="E50" s="25"/>
       <c r="F50" s="66" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G50" s="25"/>
       <c r="H50" s="39"/>
@@ -5160,7 +5175,7 @@
     <row r="51" spans="1:26" ht="12.5">
       <c r="A51" s="75"/>
       <c r="B51" s="80" t="s">
-        <v>136</v>
+        <v>195</v>
       </c>
       <c r="C51" s="79">
         <f>EVEN(C50*C6)</f>
@@ -5193,7 +5208,7 @@
     <row r="52" spans="1:26" ht="12.5">
       <c r="A52" s="75"/>
       <c r="B52" s="75" t="s">
-        <v>137</v>
+        <v>196</v>
       </c>
       <c r="C52" s="81">
         <f>EVEN(C11-1.5)</f>
@@ -5226,7 +5241,7 @@
     <row r="53" spans="1:26" ht="12.5">
       <c r="A53" s="75"/>
       <c r="B53" s="75" t="s">
-        <v>138</v>
+        <v>197</v>
       </c>
       <c r="C53" s="65">
         <f>(C52*C7)</f>
@@ -5259,7 +5274,7 @@
     <row r="54" spans="1:26" ht="12.5">
       <c r="A54" s="75"/>
       <c r="B54" s="80" t="s">
-        <v>139</v>
+        <v>198</v>
       </c>
       <c r="C54" s="82">
         <v>15</v>
@@ -5267,7 +5282,7 @@
       <c r="D54" s="25"/>
       <c r="E54" s="25"/>
       <c r="F54" s="66" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G54" s="25"/>
       <c r="H54" s="39"/>
@@ -5293,7 +5308,7 @@
     <row r="55" spans="1:26" ht="12.5">
       <c r="A55" s="75"/>
       <c r="B55" s="75" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C55" s="83">
         <v>7</v>
@@ -5325,7 +5340,7 @@
     <row r="56" spans="1:26" ht="12.5">
       <c r="A56" s="75"/>
       <c r="B56" s="75" t="s">
-        <v>142</v>
+        <v>199</v>
       </c>
       <c r="C56" s="65">
         <f>(C24-(C13/2))</f>
@@ -5358,7 +5373,7 @@
     <row r="57" spans="1:26" ht="14">
       <c r="A57" s="75"/>
       <c r="B57" s="80" t="s">
-        <v>143</v>
+        <v>200</v>
       </c>
       <c r="C57" s="83">
         <f>EVEN(C6*C56)</f>
@@ -5391,7 +5406,7 @@
     <row r="58" spans="1:26" ht="14">
       <c r="A58" s="75"/>
       <c r="B58" s="75" t="s">
-        <v>144</v>
+        <v>201</v>
       </c>
       <c r="C58" s="65">
         <f>ROUND(C12*C7,0)</f>
@@ -5424,7 +5439,7 @@
     <row r="59" spans="1:26" ht="14">
       <c r="A59" s="75"/>
       <c r="B59" s="80" t="s">
-        <v>145</v>
+        <v>202</v>
       </c>
       <c r="C59" s="83">
         <f>EVEN(C57/2)</f>
@@ -5433,7 +5448,7 @@
       <c r="D59" s="25"/>
       <c r="E59" s="85"/>
       <c r="F59" s="66" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="G59" s="25"/>
       <c r="H59" s="37"/>
@@ -5459,7 +5474,7 @@
     <row r="60" spans="1:26" ht="12.5">
       <c r="A60" s="75"/>
       <c r="B60" s="10" t="s">
-        <v>147</v>
+        <v>203</v>
       </c>
       <c r="C60" s="83">
         <f>C59</f>
@@ -5467,7 +5482,7 @@
       </c>
       <c r="D60" s="25"/>
       <c r="F60" s="66" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="G60" s="25"/>
       <c r="H60" s="37"/>
@@ -5493,7 +5508,7 @@
     <row r="61" spans="1:26" ht="12.5">
       <c r="A61" s="75"/>
       <c r="B61" s="75" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="C61" s="83">
         <f>EVEN(C58/C59)</f>
@@ -5501,7 +5516,7 @@
       </c>
       <c r="D61" s="25"/>
       <c r="F61" s="66" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="G61" s="25"/>
       <c r="H61" s="37"/>
@@ -5526,10 +5541,10 @@
     </row>
     <row r="62" spans="1:26" ht="12.5">
       <c r="A62" s="86" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="B62" s="75" t="s">
-        <v>152</v>
+        <v>204</v>
       </c>
       <c r="C62" s="13">
         <f>(C25-(C13/2))</f>
@@ -5562,7 +5577,7 @@
     <row r="63" spans="1:26" ht="12.5">
       <c r="A63" s="75"/>
       <c r="B63" s="80" t="s">
-        <v>153</v>
+        <v>205</v>
       </c>
       <c r="C63" s="13">
         <f>EVEN(C62*C6)</f>
@@ -5595,7 +5610,7 @@
     <row r="64" spans="1:26" ht="12.5">
       <c r="A64" s="75"/>
       <c r="B64" s="75" t="s">
-        <v>154</v>
+        <v>206</v>
       </c>
       <c r="C64" s="65">
         <f>ROUND(C12*C7,0)</f>
@@ -5628,7 +5643,7 @@
     <row r="65" spans="1:26" ht="14">
       <c r="A65" s="75"/>
       <c r="B65" s="80" t="s">
-        <v>155</v>
+        <v>207</v>
       </c>
       <c r="C65" s="87" t="str">
         <f>IF(EVEN(C63/2) &lt;= 0, "There are no increases in the back", (IF(EVEN(C63/2) &gt;= 0, CONCATENATE("Rounds 2 - ",C66,": Knit around. Repeat rounds 1 - ",C66," ",C69," times."))))</f>
@@ -5661,7 +5676,7 @@
     <row r="66" spans="1:26" ht="14">
       <c r="A66" s="75"/>
       <c r="B66" s="75" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="C66" s="51" t="str">
         <f>IF( C62 &lt;= 0, "0",ROUND(C64/C69,0))</f>
@@ -5694,7 +5709,7 @@
     <row r="67" spans="1:26" ht="14">
       <c r="A67" s="86"/>
       <c r="B67" s="10" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="C67" s="87" t="str">
         <f>IF(C59 &lt;= 0, "There are no increases for the bust", (IF(EVEN(C57/C58) &gt; 0, CONCATENATE("Round 1: Knit 1, m1, knit to 1 stitch before the side marker, m1, k1, sm, k1, m1, knit to 1 stitch before the beginning of round marker, m1, k1, sm. Rounds 2 - ",C60,": Knit around. Repeat rounds 1 - ",C60," for a total of ",C58," times."))))</f>
@@ -5727,7 +5742,7 @@
     <row r="68" spans="1:26" ht="12.5">
       <c r="A68" s="86"/>
       <c r="B68" s="56" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="C68" s="6" t="str">
         <f>CONCATENATE("Rounds 2 - ",C61,": Knit around. Repeat rounds 1 - ",C61," for a total of ",C59," times.")</f>
@@ -5760,7 +5775,7 @@
     <row r="69" spans="1:26" ht="12.5">
       <c r="A69" s="25"/>
       <c r="B69" s="29" t="s">
-        <v>159</v>
+        <v>208</v>
       </c>
       <c r="C69" s="83">
         <v>-5</v>
@@ -5819,7 +5834,7 @@
     </row>
     <row r="71" spans="1:26" ht="12.5">
       <c r="A71" s="10" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="B71" s="10"/>
       <c r="C71" s="8"/>
@@ -5850,13 +5865,13 @@
     <row r="72" spans="1:26" ht="12.5">
       <c r="A72" s="10"/>
       <c r="B72" s="10" t="s">
-        <v>161</v>
+        <v>209</v>
       </c>
       <c r="C72" s="8"/>
       <c r="D72" s="4"/>
       <c r="E72" s="74"/>
       <c r="F72" s="89" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="G72" s="4"/>
       <c r="H72" s="39"/>
@@ -5909,7 +5924,7 @@
     </row>
     <row r="74" spans="1:26" ht="12.5">
       <c r="A74" s="10" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="B74" s="10"/>
       <c r="C74" s="8"/>
@@ -5940,7 +5955,7 @@
     <row r="75" spans="1:26" ht="12.5">
       <c r="A75" s="25"/>
       <c r="B75" s="86" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C75" s="27"/>
       <c r="D75" s="25"/>
@@ -5970,7 +5985,7 @@
     <row r="76" spans="1:26" ht="12.5">
       <c r="A76" s="10"/>
       <c r="B76" s="10" t="s">
-        <v>200</v>
+        <v>165</v>
       </c>
       <c r="C76" s="8">
         <f t="array" ref="C76">INDEX(ArmholeShaping!$A$1:$M$139,D76+ROW_OFFSET,COL_OFFSET)</f>
@@ -6005,7 +6020,7 @@
     <row r="77" spans="1:26" ht="12.5">
       <c r="A77" s="10"/>
       <c r="B77" s="10" t="s">
-        <v>113</v>
+        <v>210</v>
       </c>
       <c r="C77" s="8">
         <f t="array" ref="C77">INDEX(ArmholeShaping!$A$1:$M$139,D77+ROW_OFFSET,COL_OFFSET)</f>
@@ -6040,10 +6055,10 @@
     <row r="78" spans="1:26" ht="12.5">
       <c r="A78" s="10"/>
       <c r="B78" s="10" t="s">
-        <v>114</v>
+        <v>211</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>176</v>
+        <v>155</v>
       </c>
       <c r="D78" s="4">
         <v>2</v>
@@ -6074,10 +6089,10 @@
     <row r="79" spans="1:26" ht="12.5">
       <c r="A79" s="10"/>
       <c r="B79" s="10" t="s">
-        <v>116</v>
+        <v>212</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>176</v>
+        <v>155</v>
       </c>
       <c r="D79" s="4">
         <v>3</v>
@@ -6108,7 +6123,7 @@
     <row r="80" spans="1:26" ht="12.5">
       <c r="A80" s="10"/>
       <c r="B80" s="94" t="s">
-        <v>118</v>
+        <v>213</v>
       </c>
       <c r="C80" s="8">
         <f t="array" ref="C80">INDEX(ArmholeShaping!$A$1:$M$139,D80+ROW_OFFSET,COL_OFFSET)</f>
@@ -6143,7 +6158,7 @@
     <row r="81" spans="1:26" ht="13">
       <c r="A81" s="10"/>
       <c r="B81" s="60" t="s">
-        <v>120</v>
+        <v>214</v>
       </c>
       <c r="C81" s="8">
         <f t="array" ref="C81">INDEX(ArmholeShaping!$A$1:$M$139,D81+ROW_OFFSET,COL_OFFSET)</f>
@@ -6178,7 +6193,7 @@
     <row r="82" spans="1:26" ht="13">
       <c r="A82" s="10"/>
       <c r="B82" s="96" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C82" s="8">
         <f t="array" ref="C82">INDEX(ArmholeShaping!$A$1:$M$139,D82+ROW_OFFSET,COL_OFFSET)</f>
@@ -6213,7 +6228,7 @@
     <row r="83" spans="1:26" ht="13">
       <c r="A83" s="10"/>
       <c r="B83" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C83" s="8">
         <f t="array" ref="C83">INDEX(ArmholeShaping!$A$1:$M$139,D83+ROW_OFFSET,COL_OFFSET)</f>
@@ -6248,7 +6263,7 @@
     <row r="84" spans="1:26" ht="12.5">
       <c r="A84" s="10"/>
       <c r="B84" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C84" s="8">
         <f t="array" ref="C84">INDEX(ArmholeShaping!$A$1:$M$139,D84+ROW_OFFSET,COL_OFFSET)</f>
@@ -6283,7 +6298,7 @@
     <row r="85" spans="1:26" ht="12.5">
       <c r="A85" s="10"/>
       <c r="B85" s="97" t="s">
-        <v>164</v>
+        <v>215</v>
       </c>
       <c r="C85" s="8">
         <f>(2*(SUM(C76:C80)+C82)+(4*C83)+(8*C84))</f>
@@ -6316,10 +6331,10 @@
     <row r="86" spans="1:26" ht="12.5">
       <c r="A86" s="10"/>
       <c r="B86" s="97" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>194</v>
+        <v>159</v>
       </c>
       <c r="D86" s="4">
         <v>9</v>
@@ -6350,7 +6365,7 @@
     <row r="87" spans="1:26" ht="12.5">
       <c r="A87" s="10"/>
       <c r="B87" s="97" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C87" s="8">
         <f t="array" ref="C87">INDEX(ArmholeShaping!$A$1:$M$139,D87+ROW_OFFSET,COL_OFFSET)</f>
@@ -6385,7 +6400,7 @@
     <row r="88" spans="1:26" ht="12.5">
       <c r="A88" s="10"/>
       <c r="B88" s="97" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C88" s="8">
         <f t="array" ref="C88">INDEX(ArmholeShaping!$A$1:$M$139,D88+ROW_OFFSET,COL_OFFSET)</f>
@@ -6420,7 +6435,7 @@
     <row r="89" spans="1:26" ht="13">
       <c r="A89" s="10"/>
       <c r="B89" s="10" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="C89" s="98">
         <f>TRUNC(C22-(6/C7),2)</f>
@@ -6453,7 +6468,7 @@
     <row r="90" spans="1:26" ht="13">
       <c r="A90" s="10"/>
       <c r="B90" s="10" t="s">
-        <v>166</v>
+        <v>216</v>
       </c>
       <c r="C90" s="8">
         <v>26</v>
@@ -6485,7 +6500,7 @@
     <row r="91" spans="1:26" ht="12.5">
       <c r="A91" s="39"/>
       <c r="B91" s="56" t="s">
-        <v>167</v>
+        <v>217</v>
       </c>
       <c r="C91" s="23">
         <f>(C90+8)</f>
@@ -6518,7 +6533,7 @@
     <row r="92" spans="1:26" ht="12.5">
       <c r="A92" s="56"/>
       <c r="B92" s="1" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="C92" s="39" t="str">
         <f>IF(C85&gt;=C113,"", CONCATENATE("Decrease 1 stitch at each end ", C82, " times as follows:
@@ -6529,7 +6544,7 @@
       <c r="D92" s="9"/>
       <c r="E92" s="9"/>
       <c r="F92" s="99" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="G92" s="9"/>
       <c r="H92" s="9"/>
@@ -6554,7 +6569,7 @@
     </row>
     <row r="93" spans="1:26" ht="13">
       <c r="A93" s="56" t="s">
-        <v>170</v>
+        <v>149</v>
       </c>
       <c r="B93" s="10"/>
       <c r="C93" s="39"/>
@@ -6585,7 +6600,7 @@
     <row r="94" spans="1:26" ht="12.5">
       <c r="A94" s="39"/>
       <c r="B94" s="56" t="s">
-        <v>171</v>
+        <v>150</v>
       </c>
       <c r="C94" s="101">
         <v>8</v>
@@ -6593,7 +6608,7 @@
       <c r="D94" s="9"/>
       <c r="E94" s="9"/>
       <c r="F94" s="70" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="G94" s="102"/>
       <c r="H94" s="9"/>
@@ -6619,7 +6634,7 @@
     <row r="95" spans="1:26" ht="12.5">
       <c r="A95" s="39"/>
       <c r="B95" s="103" t="s">
-        <v>173</v>
+        <v>152</v>
       </c>
       <c r="C95" s="23">
         <v>8</v>
@@ -6651,7 +6666,7 @@
     <row r="96" spans="1:26" ht="12.5">
       <c r="A96" s="39"/>
       <c r="B96" s="103" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c r="C96" s="23">
         <f>(C90-(C94+C95))</f>
@@ -6683,12 +6698,12 @@
     </row>
     <row r="97" spans="1:26" ht="12.5">
       <c r="A97" s="10" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="B97" s="10"/>
       <c r="C97" s="4"/>
       <c r="D97" s="8" t="s">
-        <v>176</v>
+        <v>155</v>
       </c>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
@@ -6716,7 +6731,7 @@
     <row r="98" spans="1:26" ht="12.5">
       <c r="A98" s="75"/>
       <c r="B98" s="76" t="s">
-        <v>177</v>
+        <v>218</v>
       </c>
       <c r="C98" s="77">
         <v>1.5</v>
@@ -6724,7 +6739,7 @@
       <c r="D98" s="25"/>
       <c r="E98" s="25"/>
       <c r="F98" s="78" t="s">
-        <v>178</v>
+        <v>156</v>
       </c>
       <c r="G98" s="25"/>
       <c r="H98" s="39"/>
@@ -6750,7 +6765,7 @@
     <row r="99" spans="1:26" ht="12.5">
       <c r="A99" s="10"/>
       <c r="B99" s="4" t="s">
-        <v>179</v>
+        <v>219</v>
       </c>
       <c r="C99" s="4">
         <f>MROUND((C16+0.5)*C6,8)</f>
@@ -6783,7 +6798,7 @@
     <row r="100" spans="1:26" ht="12.5">
       <c r="A100" s="10"/>
       <c r="B100" s="4" t="s">
-        <v>180</v>
+        <v>220</v>
       </c>
       <c r="C100" s="4">
         <f>(C17-(C16+0.5))</f>
@@ -6816,7 +6831,7 @@
     <row r="101" spans="1:26" ht="12.5">
       <c r="A101" s="10"/>
       <c r="B101" s="4" t="s">
-        <v>181</v>
+        <v>221</v>
       </c>
       <c r="C101" s="4">
         <v>19</v>
@@ -6848,7 +6863,7 @@
     <row r="102" spans="1:26" ht="12.5">
       <c r="A102" s="10"/>
       <c r="B102" s="4" t="s">
-        <v>182</v>
+        <v>222</v>
       </c>
       <c r="C102" s="4">
         <v>61</v>
@@ -6880,7 +6895,7 @@
     <row r="103" spans="1:26" ht="14">
       <c r="A103" s="10"/>
       <c r="B103" s="4" t="s">
-        <v>183</v>
+        <v>223</v>
       </c>
       <c r="C103" s="104">
         <f>ROUND(C101/2,0)</f>
@@ -6913,7 +6928,7 @@
     <row r="104" spans="1:26" ht="12.5">
       <c r="A104" s="10"/>
       <c r="B104" s="105" t="s">
-        <v>184</v>
+        <v>224</v>
       </c>
       <c r="C104" s="4">
         <f>EVEN(C102/C103)</f>
@@ -6946,7 +6961,7 @@
     <row r="105" spans="1:26" ht="14">
       <c r="A105" s="39"/>
       <c r="B105" s="18" t="s">
-        <v>185</v>
+        <v>157</v>
       </c>
       <c r="C105" s="104" t="str">
         <f>IF(C101 &lt;=0, "There are no increases at the forearm.", CONCATENATE("At the same time, increase every ",C104, " rows ",C103, " times as follows: K1, m1, knit to the last stitch, m1, k1."))</f>
@@ -6979,7 +6994,7 @@
     <row r="106" spans="1:26" ht="14">
       <c r="A106" s="39"/>
       <c r="B106" s="37" t="s">
-        <v>186</v>
+        <v>225</v>
       </c>
       <c r="C106" s="104">
         <f>EVEN((C19*C7)/5)</f>
@@ -7012,7 +7027,7 @@
     <row r="107" spans="1:26" ht="12.5">
       <c r="A107" s="10"/>
       <c r="B107" s="4" t="s">
-        <v>187</v>
+        <v>226</v>
       </c>
       <c r="C107" s="4">
         <v>2</v>
@@ -7044,7 +7059,7 @@
     <row r="108" spans="1:26" ht="12.5">
       <c r="A108" s="10"/>
       <c r="B108" s="4" t="s">
-        <v>188</v>
+        <v>227</v>
       </c>
       <c r="C108" s="4">
         <v>82</v>
@@ -7076,7 +7091,7 @@
     <row r="109" spans="1:26" ht="12.5">
       <c r="A109" s="10"/>
       <c r="B109" s="4" t="s">
-        <v>189</v>
+        <v>228</v>
       </c>
       <c r="C109" s="4">
         <f>MROUND(C6*C107,2)</f>
@@ -7109,7 +7124,7 @@
     <row r="110" spans="1:26" ht="14">
       <c r="A110" s="8"/>
       <c r="B110" s="105" t="s">
-        <v>190</v>
+        <v>229</v>
       </c>
       <c r="C110" s="51">
         <f>(C109/2)</f>
@@ -7142,7 +7157,7 @@
     <row r="111" spans="1:26" ht="12.5">
       <c r="A111" s="8"/>
       <c r="B111" s="105" t="s">
-        <v>191</v>
+        <v>230</v>
       </c>
       <c r="C111" s="8">
         <f>MROUND(C108/C110,2)</f>
@@ -7175,7 +7190,7 @@
     <row r="112" spans="1:26" ht="14">
       <c r="A112" s="8"/>
       <c r="B112" s="18" t="s">
-        <v>192</v>
+        <v>158</v>
       </c>
       <c r="C112" s="51" t="str">
         <f>IF(C109 &lt;=0, "There are no increases at the upper arm.", CONCATENATE("Increase every ",C111, " rows ",C110, " times as follows: K1, m1, knit to the last stitch, m1, k1."))</f>
@@ -7208,7 +7223,7 @@
     <row r="113" spans="1:26" ht="12.5">
       <c r="A113" s="8"/>
       <c r="B113" s="4" t="s">
-        <v>193</v>
+        <v>231</v>
       </c>
       <c r="C113" s="8">
         <f>(C99+C101+C109)</f>
@@ -34565,7 +34580,7 @@
   <sheetData>
     <row r="1" spans="1:37" ht="15.75" customHeight="1">
       <c r="A1" s="46" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B1" s="48"/>
       <c r="C1" s="22">
@@ -34652,7 +34667,7 @@
     </row>
     <row r="5" spans="1:37" ht="15.75" customHeight="1">
       <c r="A5" s="54" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C5" s="22">
         <v>2</v>
@@ -34690,7 +34705,7 @@
     </row>
     <row r="6" spans="1:37" ht="15.75" customHeight="1">
       <c r="A6" s="54" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C6" s="22">
         <v>1</v>
@@ -34728,7 +34743,7 @@
     </row>
     <row r="7" spans="1:37" ht="15.75" customHeight="1">
       <c r="A7" s="56" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C7" s="57"/>
       <c r="D7" s="57"/>
@@ -34750,7 +34765,7 @@
     </row>
     <row r="8" spans="1:37" ht="15.75" customHeight="1">
       <c r="A8" s="56" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C8" s="57"/>
       <c r="D8" s="57"/>
@@ -34766,7 +34781,7 @@
     </row>
     <row r="9" spans="1:37" ht="15.75" customHeight="1">
       <c r="A9" s="59" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C9" s="57">
         <v>1</v>
@@ -34804,7 +34819,7 @@
     </row>
     <row r="10" spans="1:37" ht="15.75" customHeight="1">
       <c r="A10" s="60" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C10" s="61"/>
       <c r="D10" s="58">
@@ -34838,7 +34853,7 @@
     </row>
     <row r="11" spans="1:37" ht="15.75" customHeight="1">
       <c r="A11" s="62" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="63">
@@ -34877,7 +34892,7 @@
     </row>
     <row r="12" spans="1:37" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C12" s="63">
         <v>2</v>
@@ -34915,7 +34930,7 @@
     </row>
     <row r="13" spans="1:37" ht="15.75" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C13" s="63">
         <v>1</v>
@@ -34939,7 +34954,7 @@
     </row>
     <row r="14" spans="1:37" ht="15.75" customHeight="1">
       <c r="A14" s="64" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C14" s="61"/>
       <c r="D14" s="61"/>
@@ -34969,7 +34984,7 @@
     </row>
     <row r="15" spans="1:37" ht="15.75" customHeight="1">
       <c r="A15" s="64" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C15" s="22"/>
       <c r="D15" s="61"/>
@@ -34997,7 +35012,7 @@
     </row>
     <row r="16" spans="1:37" ht="15.75" customHeight="1">
       <c r="A16" s="64" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C16" s="50"/>
       <c r="D16" s="50"/>
@@ -35028,7 +35043,7 @@
     </row>
     <row r="20" spans="1:13" ht="15.75" customHeight="1">
       <c r="A20" s="54" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C20" s="58">
         <v>2</v>
@@ -35066,7 +35081,7 @@
     </row>
     <row r="21" spans="1:13" ht="15.75" customHeight="1">
       <c r="A21" s="54" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C21" s="58">
         <v>1</v>
@@ -35104,7 +35119,7 @@
     </row>
     <row r="22" spans="1:13" ht="12.5">
       <c r="A22" s="54" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C22" s="58"/>
       <c r="D22" s="58"/>
@@ -35134,7 +35149,7 @@
     </row>
     <row r="24" spans="1:13" ht="12.5">
       <c r="A24" s="59" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C24" s="57">
         <v>2</v>
@@ -35172,7 +35187,7 @@
     </row>
     <row r="25" spans="1:13" ht="12.5">
       <c r="A25" s="60" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C25" s="61"/>
       <c r="D25" s="61"/>
@@ -35202,7 +35217,7 @@
     </row>
     <row r="26" spans="1:13" ht="12.5">
       <c r="A26" s="62" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="68"/>
@@ -35219,7 +35234,7 @@
     </row>
     <row r="27" spans="1:13" ht="12.5">
       <c r="A27" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C27" s="58">
         <v>3</v>
@@ -35257,7 +35272,7 @@
     </row>
     <row r="28" spans="1:13" ht="12.5">
       <c r="A28" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C28" s="58">
         <v>1</v>
@@ -35295,7 +35310,7 @@
     </row>
     <row r="29" spans="1:13" ht="12.5">
       <c r="A29" s="64" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C29" s="58">
         <v>5</v>
@@ -35333,7 +35348,7 @@
     </row>
     <row r="30" spans="1:13" ht="12.5">
       <c r="A30" s="64" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C30" s="61"/>
       <c r="D30" s="61"/>
@@ -35349,7 +35364,7 @@
     </row>
     <row r="31" spans="1:13" ht="12.5">
       <c r="A31" s="64" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C31" s="61"/>
       <c r="D31" s="61"/>
@@ -35389,7 +35404,7 @@
     </row>
     <row r="35" spans="1:37" ht="12.5">
       <c r="A35" s="54" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C35" s="58">
         <v>2</v>
@@ -35427,7 +35442,7 @@
     </row>
     <row r="36" spans="1:37" ht="12.5">
       <c r="A36" s="54" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C36" s="58">
         <v>2</v>
@@ -35465,7 +35480,7 @@
     </row>
     <row r="37" spans="1:37" ht="12.5">
       <c r="A37" s="54" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C37" s="58"/>
       <c r="D37" s="58"/>
@@ -35495,7 +35510,7 @@
     </row>
     <row r="39" spans="1:37" ht="12.5">
       <c r="A39" s="59" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C39" s="57">
         <v>2</v>
@@ -35533,7 +35548,7 @@
     </row>
     <row r="40" spans="1:37" ht="12.5">
       <c r="A40" s="60" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C40" s="57">
         <v>4</v>
@@ -35571,7 +35586,7 @@
     </row>
     <row r="41" spans="1:37" ht="12.5">
       <c r="A41" s="62" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="63">
@@ -35610,7 +35625,7 @@
     </row>
     <row r="42" spans="1:37" ht="12.5">
       <c r="A42" s="71" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B42" s="72"/>
       <c r="C42" s="73">
@@ -35673,7 +35688,7 @@
     </row>
     <row r="43" spans="1:37" ht="12.5">
       <c r="A43" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C43" s="63">
         <v>1</v>
@@ -35697,7 +35712,7 @@
     </row>
     <row r="44" spans="1:37" ht="12.5">
       <c r="A44" s="64" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C44" s="57">
         <v>4</v>
@@ -35735,7 +35750,7 @@
     </row>
     <row r="45" spans="1:37" ht="12.5">
       <c r="A45" s="64" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C45" s="58"/>
       <c r="D45" s="57"/>
@@ -35751,7 +35766,7 @@
     </row>
     <row r="46" spans="1:37" ht="12.5">
       <c r="A46" s="64" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C46" s="50"/>
       <c r="D46" s="50"/>
@@ -35792,7 +35807,7 @@
     </row>
     <row r="50" spans="1:13" ht="12.5">
       <c r="A50" s="54" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C50" s="58">
         <v>2</v>
@@ -35830,7 +35845,7 @@
     </row>
     <row r="51" spans="1:13" ht="12.5">
       <c r="A51" s="54" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C51" s="58">
         <v>2</v>
@@ -35868,7 +35883,7 @@
     </row>
     <row r="52" spans="1:13" ht="12.5">
       <c r="A52" s="54" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C52" s="58"/>
       <c r="D52" s="58"/>
@@ -35900,7 +35915,7 @@
     </row>
     <row r="54" spans="1:13" ht="12.5">
       <c r="A54" s="59" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C54" s="57">
         <v>3</v>
@@ -35938,7 +35953,7 @@
     </row>
     <row r="55" spans="1:13" ht="12.5">
       <c r="A55" s="60" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C55" s="61"/>
       <c r="D55" s="61"/>
@@ -35972,7 +35987,7 @@
     </row>
     <row r="56" spans="1:13" ht="12.5">
       <c r="A56" s="62" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B56" s="1"/>
       <c r="C56" s="58">
@@ -36011,7 +36026,7 @@
     </row>
     <row r="57" spans="1:13" ht="12.5">
       <c r="A57" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C57" s="58">
         <v>3</v>
@@ -36049,7 +36064,7 @@
     </row>
     <row r="58" spans="1:13" ht="12.5">
       <c r="A58" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C58" s="58">
         <v>1</v>
@@ -36083,7 +36098,7 @@
     </row>
     <row r="59" spans="1:13" ht="12.5">
       <c r="A59" s="64" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C59" s="58">
         <v>7</v>
@@ -36121,7 +36136,7 @@
     </row>
     <row r="60" spans="1:13" ht="12.5">
       <c r="A60" s="64" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C60" s="58"/>
       <c r="D60" s="58"/>
@@ -36139,7 +36154,7 @@
     </row>
     <row r="61" spans="1:13" ht="12.5">
       <c r="A61" s="64" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C61" s="61"/>
       <c r="D61" s="61"/>
@@ -36181,7 +36196,7 @@
     </row>
     <row r="65" spans="1:13" ht="12.5">
       <c r="A65" s="54" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C65" s="58">
         <v>3</v>
@@ -36219,7 +36234,7 @@
     </row>
     <row r="66" spans="1:13" ht="12.5">
       <c r="A66" s="54" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C66" s="58">
         <v>2</v>
@@ -36257,7 +36272,7 @@
     </row>
     <row r="67" spans="1:13" ht="12.5">
       <c r="A67" s="54" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C67" s="58"/>
       <c r="D67" s="58"/>
@@ -36291,7 +36306,7 @@
     </row>
     <row r="69" spans="1:13" ht="12.5">
       <c r="A69" s="59" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C69" s="57">
         <v>3</v>
@@ -36329,7 +36344,7 @@
     </row>
     <row r="70" spans="1:13" ht="12.5">
       <c r="A70" s="60" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C70" s="57">
         <v>6</v>
@@ -36367,7 +36382,7 @@
     </row>
     <row r="71" spans="1:13" ht="12.5">
       <c r="A71" s="62" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B71" s="1"/>
       <c r="C71" s="63">
@@ -36406,7 +36421,7 @@
     </row>
     <row r="72" spans="1:13" ht="12.5">
       <c r="A72" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C72" s="63">
         <v>2</v>
@@ -36444,7 +36459,7 @@
     </row>
     <row r="73" spans="1:13" ht="12.5">
       <c r="A73" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C73" s="63">
         <v>1</v>
@@ -36482,7 +36497,7 @@
     </row>
     <row r="74" spans="1:13" ht="12.5">
       <c r="A74" s="64" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C74" s="57">
         <v>12</v>
@@ -36520,7 +36535,7 @@
     </row>
     <row r="75" spans="1:13" ht="12.5">
       <c r="A75" s="64" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C75" s="58"/>
       <c r="D75" s="57"/>
@@ -36536,7 +36551,7 @@
     </row>
     <row r="76" spans="1:13" ht="12.5">
       <c r="A76" s="64" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C76" s="50"/>
       <c r="D76" s="50"/>
@@ -36576,7 +36591,7 @@
     </row>
     <row r="80" spans="1:13" ht="12.5">
       <c r="A80" s="54" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C80" s="58">
         <v>3</v>
@@ -36614,7 +36629,7 @@
     </row>
     <row r="81" spans="1:13" ht="12.5">
       <c r="A81" s="54" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C81" s="58">
         <v>2</v>
@@ -36652,7 +36667,7 @@
     </row>
     <row r="82" spans="1:13" ht="12.5">
       <c r="A82" s="54" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C82" s="58"/>
       <c r="D82" s="58"/>
@@ -36686,7 +36701,7 @@
     </row>
     <row r="84" spans="1:13" ht="12.5">
       <c r="A84" s="59" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C84" s="57">
         <v>4</v>
@@ -36724,7 +36739,7 @@
     </row>
     <row r="85" spans="1:13" ht="12.5">
       <c r="A85" s="60" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C85" s="57">
         <v>4</v>
@@ -36762,7 +36777,7 @@
     </row>
     <row r="86" spans="1:13" ht="12.5">
       <c r="A86" s="62" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B86" s="1"/>
       <c r="C86" s="63">
@@ -36801,7 +36816,7 @@
     </row>
     <row r="87" spans="1:13" ht="12.5">
       <c r="A87" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C87" s="63">
         <v>2</v>
@@ -36839,7 +36854,7 @@
     </row>
     <row r="88" spans="1:13" ht="12.5">
       <c r="A88" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C88" s="63">
         <v>1</v>
@@ -36877,7 +36892,7 @@
     </row>
     <row r="89" spans="1:13" ht="12.5">
       <c r="A89" s="64" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C89" s="57">
         <v>13</v>
@@ -36915,7 +36930,7 @@
     </row>
     <row r="90" spans="1:13" ht="12.5">
       <c r="A90" s="64" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C90" s="58"/>
       <c r="D90" s="57"/>
@@ -36931,7 +36946,7 @@
     </row>
     <row r="91" spans="1:13" ht="12.5">
       <c r="A91" s="64" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C91" s="50"/>
       <c r="D91" s="50"/>
@@ -36971,7 +36986,7 @@
     </row>
     <row r="95" spans="1:13" ht="12.5">
       <c r="A95" s="54" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C95" s="58">
         <v>4</v>
@@ -37009,7 +37024,7 @@
     </row>
     <row r="96" spans="1:13" ht="12.5">
       <c r="A96" s="54" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C96" s="58">
         <v>3</v>
@@ -37047,7 +37062,7 @@
     </row>
     <row r="97" spans="1:13" ht="12.5">
       <c r="A97" s="54" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C97" s="58"/>
       <c r="D97" s="58"/>
@@ -37081,7 +37096,7 @@
     </row>
     <row r="99" spans="1:13" ht="12.5">
       <c r="A99" s="59" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C99" s="57">
         <v>3</v>
@@ -37119,7 +37134,7 @@
     </row>
     <row r="100" spans="1:13" ht="12.5">
       <c r="A100" s="60" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C100" s="57">
         <v>4</v>
@@ -37157,7 +37172,7 @@
     </row>
     <row r="101" spans="1:13" ht="12.5">
       <c r="A101" s="62" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B101" s="1"/>
       <c r="C101" s="63">
@@ -37196,7 +37211,7 @@
     </row>
     <row r="102" spans="1:13" ht="12.5">
       <c r="A102" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C102" s="63">
         <v>2</v>
@@ -37234,7 +37249,7 @@
     </row>
     <row r="103" spans="1:13" ht="12.5">
       <c r="A103" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C103" s="63">
         <v>1</v>
@@ -37272,7 +37287,7 @@
     </row>
     <row r="104" spans="1:13" ht="12.5">
       <c r="A104" s="64" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C104" s="57">
         <v>14</v>
@@ -37310,7 +37325,7 @@
     </row>
     <row r="105" spans="1:13" ht="12.5">
       <c r="A105" s="64" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C105" s="58"/>
       <c r="D105" s="57"/>
@@ -37326,7 +37341,7 @@
     </row>
     <row r="106" spans="1:13" ht="12.5">
       <c r="A106" s="64" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C106" s="63"/>
       <c r="D106" s="63"/>
@@ -37375,7 +37390,7 @@
     </row>
     <row r="110" spans="1:13" ht="12.5">
       <c r="A110" s="54" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C110" s="58">
         <v>4</v>
@@ -37413,7 +37428,7 @@
     </row>
     <row r="111" spans="1:13" ht="12.5">
       <c r="A111" s="54" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C111" s="58">
         <v>3</v>
@@ -37451,7 +37466,7 @@
     </row>
     <row r="112" spans="1:13" ht="12.5">
       <c r="A112" s="54" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C112" s="58"/>
       <c r="D112" s="58"/>
@@ -37489,7 +37504,7 @@
     </row>
     <row r="114" spans="1:13" ht="12.5">
       <c r="A114" s="59" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C114" s="57">
         <v>4</v>
@@ -37527,7 +37542,7 @@
     </row>
     <row r="115" spans="1:13" ht="12.5">
       <c r="A115" s="60" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C115" s="57">
         <v>6</v>
@@ -37565,7 +37580,7 @@
     </row>
     <row r="116" spans="1:13" ht="12.5">
       <c r="A116" s="62" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B116" s="1"/>
       <c r="C116" s="63">
@@ -37604,7 +37619,7 @@
     </row>
     <row r="117" spans="1:13" ht="12.5">
       <c r="A117" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C117" s="63">
         <v>3</v>
@@ -37642,7 +37657,7 @@
     </row>
     <row r="118" spans="1:13" ht="12.5">
       <c r="A118" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C118" s="63">
         <v>1</v>
@@ -37680,7 +37695,7 @@
     </row>
     <row r="119" spans="1:13" ht="12.5">
       <c r="A119" s="64" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C119" s="57">
         <v>7</v>
@@ -37718,7 +37733,7 @@
     </row>
     <row r="120" spans="1:13" ht="12.5">
       <c r="A120" s="64" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C120" s="58">
         <v>7</v>
@@ -37744,7 +37759,7 @@
     </row>
     <row r="121" spans="1:13" ht="12.5">
       <c r="A121" s="64" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C121" s="63">
         <v>7</v>
@@ -37794,7 +37809,7 @@
     </row>
     <row r="125" spans="1:13" ht="12.5">
       <c r="A125" s="54" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C125" s="58">
         <v>5</v>
@@ -37832,7 +37847,7 @@
     </row>
     <row r="126" spans="1:13" ht="12.5">
       <c r="A126" s="54" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C126" s="58">
         <v>4</v>
@@ -37870,7 +37885,7 @@
     </row>
     <row r="127" spans="1:13" ht="12.5">
       <c r="A127" s="54" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C127" s="58"/>
       <c r="D127" s="58"/>
@@ -37896,7 +37911,7 @@
     </row>
     <row r="128" spans="1:13" ht="12.5">
       <c r="A128" s="54" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C128" s="57"/>
       <c r="D128" s="57"/>
@@ -37914,7 +37929,7 @@
     </row>
     <row r="129" spans="1:13" ht="12.5">
       <c r="A129" s="59" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C129" s="57">
         <v>3</v>
@@ -37952,7 +37967,7 @@
     </row>
     <row r="130" spans="1:13" ht="12.5">
       <c r="A130" s="60" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C130" s="57">
         <v>4</v>
@@ -37990,7 +38005,7 @@
     </row>
     <row r="131" spans="1:13" ht="12.5">
       <c r="A131" s="62" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B131" s="1"/>
       <c r="C131" s="63">
@@ -38029,7 +38044,7 @@
     </row>
     <row r="132" spans="1:13" ht="12.5">
       <c r="A132" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C132" s="63">
         <v>4</v>
@@ -38067,7 +38082,7 @@
     </row>
     <row r="133" spans="1:13" ht="12.5">
       <c r="A133" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C133" s="63">
         <v>2</v>
@@ -38105,7 +38120,7 @@
     </row>
     <row r="134" spans="1:13" ht="12.5">
       <c r="A134" s="64" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C134" s="57">
         <v>12</v>
@@ -38143,7 +38158,7 @@
     </row>
     <row r="135" spans="1:13" ht="12.5">
       <c r="A135" s="64" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C135" s="58"/>
       <c r="D135" s="57"/>
@@ -38159,7 +38174,7 @@
     </row>
     <row r="136" spans="1:13" ht="12.5">
       <c r="A136" s="64" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C136" s="63"/>
       <c r="D136" s="63"/>
@@ -41634,8 +41649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FCA7099-1279-447F-A573-F2D3FDDE803C}">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5"/>
@@ -41650,10 +41665,10 @@
         <v>31</v>
       </c>
       <c r="B1" t="s">
-        <v>203</v>
+        <v>168</v>
       </c>
       <c r="C1" t="s">
-        <v>206</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -41661,10 +41676,10 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>204</v>
+        <v>169</v>
       </c>
       <c r="C2" t="s">
-        <v>201</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -41677,7 +41692,7 @@
         <v>45</v>
       </c>
       <c r="B4" t="s">
-        <v>205</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -41709,7 +41724,7 @@
         <v>58</v>
       </c>
       <c r="D8" t="s">
-        <v>213</v>
+        <v>178</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -41727,7 +41742,7 @@
         <v>63</v>
       </c>
       <c r="B11" t="s">
-        <v>212</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -41735,7 +41750,7 @@
         <v>65</v>
       </c>
       <c r="B12" t="s">
-        <v>207</v>
+        <v>172</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -41743,18 +41758,18 @@
         <v>67</v>
       </c>
       <c r="B13" t="s">
-        <v>209</v>
+        <v>174</v>
       </c>
       <c r="C13" t="s">
-        <v>218</v>
+        <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="111" t="s">
-        <v>199</v>
+        <v>164</v>
       </c>
       <c r="B14" t="s">
-        <v>226</v>
+        <v>191</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -41762,7 +41777,7 @@
         <v>72</v>
       </c>
       <c r="B15" t="s">
-        <v>215</v>
+        <v>180</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -41770,51 +41785,51 @@
         <v>73</v>
       </c>
       <c r="B16" t="s">
-        <v>216</v>
+        <v>181</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="111" t="s">
-        <v>198</v>
+        <v>163</v>
       </c>
       <c r="B17" t="s">
-        <v>217</v>
+        <v>182</v>
       </c>
       <c r="C17" t="s">
-        <v>222</v>
+        <v>187</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="111" t="s">
-        <v>197</v>
+        <v>162</v>
       </c>
       <c r="B18" t="s">
-        <v>219</v>
+        <v>184</v>
       </c>
       <c r="C18" t="s">
-        <v>223</v>
+        <v>188</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="111" t="s">
-        <v>196</v>
+        <v>161</v>
       </c>
       <c r="B19" t="s">
-        <v>220</v>
+        <v>185</v>
       </c>
       <c r="C19" t="s">
-        <v>224</v>
+        <v>189</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="111" t="s">
-        <v>195</v>
+        <v>160</v>
       </c>
       <c r="B20" t="s">
-        <v>221</v>
+        <v>186</v>
       </c>
       <c r="C20" t="s">
-        <v>225</v>
+        <v>190</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -41822,7 +41837,7 @@
         <v>74</v>
       </c>
       <c r="B21" t="s">
-        <v>214</v>
+        <v>179</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -41830,10 +41845,10 @@
         <v>77</v>
       </c>
       <c r="B22" t="s">
-        <v>208</v>
+        <v>173</v>
       </c>
       <c r="C22" t="s">
-        <v>202</v>
+        <v>167</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -41841,7 +41856,7 @@
         <v>83</v>
       </c>
       <c r="B23" t="s">
-        <v>210</v>
+        <v>175</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -41849,7 +41864,7 @@
         <v>93</v>
       </c>
       <c r="B24" s="108" t="s">
-        <v>211</v>
+        <v>176</v>
       </c>
     </row>
     <row r="25" spans="1:3">
